--- a/src/main/resources/template/en/export.xlsx
+++ b/src/main/resources/template/en/export.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="1" state="visible" r:id="rId2"/>
@@ -87,7 +87,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -111,12 +111,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -165,17 +159,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -199,13 +189,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="1" style="0" width="25"/>
   </cols>
@@ -263,40 +253,56 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -313,30 +319,72 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.05"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/src/main/resources/template/en/export.xlsx
+++ b/src/main/resources/template/en/export.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="1" state="visible" r:id="rId2"/>
@@ -191,13 +191,15 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="1" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="50.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="6" style="0" width="25"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -321,11 +323,11 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.05"/>
